--- a/Excel/EnemyGroup.xlsx
+++ b/Excel/EnemyGroup.xlsx
@@ -484,7 +484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f341c109-627c-4715-bf25-498c634f9112}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cf8ca104-e2ba-45c8-9f1f-18c3714efca0}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/Excel/EnemyGroup.xlsx
+++ b/Excel/EnemyGroup.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="20">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -76,7 +76,10 @@
     <t xml:space="preserve">Hill_1</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
+    <t xml:space="preserve">Hill_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hill_3</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -133,6 +136,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,7 +186,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -197,7 +207,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -407,7 +421,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -501,12 +515,12 @@
         <v>1</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -551,12 +565,12 @@
         <v>1</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -594,19 +608,19 @@
       <c r="K4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -644,19 +658,19 @@
       <c r="K5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -701,12 +715,12 @@
         <v>1</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -751,12 +765,12 @@
         <v>1</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -801,12 +815,12 @@
         <v>1</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -851,12 +865,12 @@
         <v>1</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -901,12 +915,12 @@
         <v>1</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -951,12 +965,12 @@
         <v>1</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1001,12 +1015,12 @@
         <v>1</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1051,12 +1065,12 @@
         <v>1</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1101,12 +1115,12 @@
         <v>1</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="P14" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1151,12 +1165,12 @@
         <v>1</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1194,19 +1208,19 @@
       <c r="K16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="P16" s="1" t="n">
         <v>5</v>
       </c>
     </row>

--- a/Excel/EnemyGroup.xlsx
+++ b/Excel/EnemyGroup.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -31,6 +31,12 @@
     <t xml:space="preserve">Exp</t>
   </si>
   <si>
+    <t xml:space="preserve">MinPlayerCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxPlayerCount</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prefab</t>
   </si>
   <si>
@@ -65,9 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve">MapProbability_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NeedCount</t>
   </si>
   <si>
     <t xml:space="preserve">FOE</t>
@@ -186,7 +189,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -204,10 +207,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -404,10 +403,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P1048576"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="A1:P16"/>
+      <selection pane="topLeft" activeCell="Q16" activeCellId="0" sqref="A1:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -415,13 +414,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="2.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="8.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="13.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="1" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="8.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -434,13 +433,13 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -452,7 +451,7 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -464,14 +463,17 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -484,30 +486,30 @@
       <c r="C2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
@@ -520,8 +522,11 @@
       <c r="O2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="1" t="n">
-        <v>3</v>
+      <c r="P2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,30 +539,30 @@
       <c r="C3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
+      <c r="D3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="L3" s="2" t="s">
         <v>18</v>
       </c>
@@ -570,8 +575,11 @@
       <c r="O3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v>3</v>
+      <c r="P3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,44 +592,47 @@
       <c r="C4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
+      <c r="D4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="O4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="1" t="n">
-        <v>3</v>
+      <c r="P4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,44 +645,47 @@
       <c r="C5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
+      <c r="D5" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="O5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P5" s="1" t="n">
-        <v>4</v>
+      <c r="P5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -684,30 +698,30 @@
       <c r="C6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
+      <c r="D6" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="L6" s="2" t="s">
         <v>18</v>
       </c>
@@ -720,8 +734,11 @@
       <c r="O6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P6" s="1" t="n">
-        <v>4</v>
+      <c r="P6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -734,30 +751,30 @@
       <c r="C7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>18</v>
       </c>
@@ -770,8 +787,11 @@
       <c r="O7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P7" s="1" t="n">
-        <v>4</v>
+      <c r="P7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -784,30 +804,30 @@
       <c r="C8" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
+      <c r="D8" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="L8" s="2" t="s">
         <v>18</v>
       </c>
@@ -820,8 +840,11 @@
       <c r="O8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P8" s="1" t="n">
-        <v>4</v>
+      <c r="P8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -834,30 +857,30 @@
       <c r="C9" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
+      <c r="D9" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="L9" s="2" t="s">
         <v>18</v>
       </c>
@@ -870,8 +893,11 @@
       <c r="O9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P9" s="1" t="n">
-        <v>4</v>
+      <c r="P9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -884,30 +910,30 @@
       <c r="C10" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
+      <c r="D10" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="L10" s="2" t="s">
         <v>18</v>
       </c>
@@ -920,8 +946,11 @@
       <c r="O10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P10" s="1" t="n">
-        <v>4</v>
+      <c r="P10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,30 +963,30 @@
       <c r="C11" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
+      <c r="D11" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="L11" s="2" t="s">
         <v>18</v>
       </c>
@@ -970,8 +999,11 @@
       <c r="O11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P11" s="1" t="n">
-        <v>5</v>
+      <c r="P11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -984,30 +1016,30 @@
       <c r="C12" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
+      <c r="D12" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="L12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1020,8 +1052,11 @@
       <c r="O12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P12" s="1" t="n">
-        <v>5</v>
+      <c r="P12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,30 +1069,30 @@
       <c r="C13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
+      <c r="D13" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="L13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1070,8 +1105,11 @@
       <c r="O13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P13" s="1" t="n">
-        <v>5</v>
+      <c r="P13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1084,30 +1122,30 @@
       <c r="C14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
+      <c r="D14" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="L14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1120,8 +1158,11 @@
       <c r="O14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P14" s="1" t="n">
-        <v>5</v>
+      <c r="P14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1134,30 +1175,30 @@
       <c r="C15" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
+      <c r="D15" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="L15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1170,8 +1211,11 @@
       <c r="O15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P15" s="1" t="n">
-        <v>5</v>
+      <c r="P15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,44 +1228,47 @@
       <c r="C16" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>16</v>
+      <c r="D16" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="O16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P16" s="1" t="n">
-        <v>5</v>
+      <c r="P16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Excel/EnemyGroup.xlsx
+++ b/Excel/EnemyGroup.xlsx
@@ -20,7 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">0: NotMove
+1: Default
+2: Trace</t>
+  </si>
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -38,6 +43,9 @@
   </si>
   <si>
     <t xml:space="preserve">Prefab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI</t>
   </si>
   <si>
     <t xml:space="preserve">Enemy_1</t>
@@ -92,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -120,14 +128,28 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9.5"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -147,12 +169,18 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -189,7 +217,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -198,12 +226,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -211,6 +243,34 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -403,10 +463,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1048576"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q16" activeCellId="0" sqref="A1:Q16"/>
+      <selection pane="topLeft" activeCell="R14" activeCellId="0" sqref="A2:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -415,123 +475,95 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="2.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="13.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="1" width="8.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="8.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="1" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.94"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="36.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="O2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="P2" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="Q2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="R2" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
@@ -545,10 +577,10 @@
       <c r="E3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="n">
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="n">
@@ -558,33 +590,36 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="M3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="N3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -598,10 +633,10 @@
       <c r="E4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="n">
+      <c r="F4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="n">
@@ -611,139 +646,148 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="M4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="N4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="5" t="s">
+      <c r="M5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="G6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="1" t="n">
+      <c r="N6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>3</v>
@@ -757,46 +801,49 @@
       <c r="E7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>1</v>
+      <c r="F7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="2" t="s">
+      <c r="M7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="1" t="n">
+      <c r="N7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>3</v>
@@ -810,46 +857,49 @@
       <c r="E8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>1</v>
+      <c r="F8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="2" t="s">
+      <c r="M8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="1" t="n">
+      <c r="N8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>3</v>
@@ -863,99 +913,105 @@
       <c r="E9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>1</v>
+      <c r="F9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K9" s="1" t="n">
+      <c r="L9" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2" t="s">
+      <c r="M9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2" t="s">
+      <c r="G10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="1" t="n">
+      <c r="N10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>4</v>
@@ -969,46 +1025,49 @@
       <c r="E11" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>1</v>
+      <c r="F11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="2" t="s">
+      <c r="M11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="1" t="n">
+      <c r="N11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>4</v>
@@ -1022,46 +1081,49 @@
       <c r="E12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>1</v>
+      <c r="F12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="2" t="s">
+      <c r="M12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="1" t="n">
+      <c r="N12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>4</v>
@@ -1075,202 +1137,104 @@
       <c r="E13" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>1</v>
+      <c r="F13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K13" s="1" t="n">
+      <c r="L13" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="2" t="s">
+      <c r="M13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="2" t="s">
+      <c r="G14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="N14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Excel/EnemyGroup.xlsx
+++ b/Excel/EnemyGroup.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="24">
   <si>
     <t xml:space="preserve">0: NotMove
 1: Default
@@ -81,7 +81,7 @@
     <t xml:space="preserve">MapProbability_3</t>
   </si>
   <si>
-    <t xml:space="preserve">FOE</t>
+    <t xml:space="preserve">FOE_Move</t>
   </si>
   <si>
     <t xml:space="preserve">Hill_1</t>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hill_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOE_NotMove</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -267,10 +270,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -729,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
         <v>4</v>
       </c>
@@ -746,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="11" t="n">
         <v>0</v>
@@ -953,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
         <v>8</v>
       </c>
@@ -970,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G10" s="11" t="n">
         <v>0</v>
@@ -1177,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="n">
         <v>12</v>
       </c>
@@ -1194,7 +1193,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G14" s="11" t="n">
         <v>0</v>

--- a/Excel/EnemyGroup.xlsx
+++ b/Excel/EnemyGroup.xlsx
@@ -589,10 +589,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>-1</v>
@@ -645,10 +645,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>-1</v>
@@ -701,10 +701,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>-1</v>
@@ -751,16 +751,16 @@
         <v>0</v>
       </c>
       <c r="H6" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" s="10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6" s="10" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L6" s="10" t="n">
         <v>-1</v>

--- a/Excel/EnemyGroup.xlsx
+++ b/Excel/EnemyGroup.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
   <si>
     <t xml:space="preserve">0: NotMove
 1: Default
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t xml:space="preserve">FOE_NotMove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOE_Trace</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
   <dimension ref="A1:R1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R14" activeCellId="0" sqref="A2:R14"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -801,7 +804,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>2</v>
@@ -816,7 +819,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" s="1" t="n">
         <v>-1</v>
@@ -856,8 +859,8 @@
       <c r="E8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>19</v>
+      <c r="F8" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>2</v>
@@ -869,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" s="1" t="n">
         <v>4</v>
@@ -912,8 +915,8 @@
       <c r="E9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>19</v>
+      <c r="F9" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>2</v>
@@ -925,10 +928,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L9" s="1" t="n">
         <v>-1</v>

--- a/Excel/EnemyGroup.xlsx
+++ b/Excel/EnemyGroup.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="32">
   <si>
     <t xml:space="preserve">0: NotMove
 1: Default
@@ -66,19 +66,25 @@
     <t xml:space="preserve">Map_1</t>
   </si>
   <si>
-    <t xml:space="preserve">MapProbability_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Map_2</t>
   </si>
   <si>
-    <t xml:space="preserve">MapProbability_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Map_3</t>
   </si>
   <si>
-    <t xml:space="preserve">MapProbability_3</t>
+    <t xml:space="preserve">Map_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map_8</t>
   </si>
   <si>
     <t xml:space="preserve">FOE_Move</t>
@@ -91,6 +97,21 @@
   </si>
   <si>
     <t xml:space="preserve">Hill_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hill_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hill_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hill_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hill_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hill_8</t>
   </si>
   <si>
     <t xml:space="preserve">FOE_NotMove</t>
@@ -223,7 +244,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -257,6 +278,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -465,10 +490,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1048576"/>
+  <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="9:9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -480,9 +505,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="1" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="0" width="11.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -501,11 +524,8 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
@@ -547,20 +567,26 @@
       <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -580,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>1</v>
@@ -601,22 +627,28 @@
         <v>-1</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="1" t="n">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>1</v>
@@ -657,22 +689,28 @@
         <v>-1</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -692,7 +730,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>1</v>
@@ -713,78 +751,90 @@
         <v>-1</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="1" t="n">
-        <v>1</v>
+      <c r="N5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" s="11" t="s">
+    <row r="6" s="11" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L6" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="10" t="n">
-        <v>1</v>
-      </c>
       <c r="O6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="10" t="n">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -804,7 +854,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>2</v>
@@ -825,22 +875,28 @@
         <v>-1</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="1" t="n">
-        <v>1</v>
+      <c r="N7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,8 +915,8 @@
       <c r="E8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>24</v>
+      <c r="F8" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>2</v>
@@ -881,22 +937,28 @@
         <v>-1</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="1" t="n">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" s="1" t="n">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -915,8 +977,8 @@
       <c r="E9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>24</v>
+      <c r="F9" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>2</v>
@@ -937,78 +999,90 @@
         <v>-1</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="1" t="n">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" s="11" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="N10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="L10" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R10" s="10" t="n">
-        <v>1</v>
+      <c r="O10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1028,7 +1102,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>2</v>
@@ -1049,22 +1123,28 @@
         <v>6</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="1" t="n">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R11" s="1" t="n">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1084,7 +1164,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>2</v>
@@ -1105,22 +1185,28 @@
         <v>6</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="1" t="n">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="1" t="n">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1140,7 +1226,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>2</v>
@@ -1161,78 +1247,90 @@
         <v>6</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="1" t="n">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" s="11" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="M14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="N14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K14" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="L14" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R14" s="10" t="n">
-        <v>1</v>
+      <c r="O14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
